--- a/Task2.xlsx
+++ b/Task2.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>task4</t>
+    <t>test2</t>
   </si>
   <si>
     <t>ID</t>
@@ -27,6 +27,15 @@
   </si>
   <si>
     <t>Result</t>
+  </si>
+  <si>
+    <t>TEst1</t>
+  </si>
+  <si>
+    <t>TEst2</t>
+  </si>
+  <si>
+    <t>5 + 5 = 10</t>
   </si>
 </sst>
 </file>
@@ -71,17 +80,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="5.8046875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="5.58203125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="2.9453125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.12890625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="12.7578125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="6.5859375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="9.6796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -101,6 +110,20 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2">
+      <c r="B2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
